--- a/doc/gantt/gantt.xlsx
+++ b/doc/gantt/gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20337"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HASEE\source\repos\River75731\Trash-Mechanics\doc\gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivekon\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF5348F-5DA8-41DA-9DDD-E23112540657}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFA9803-6BF0-4D89-8B34-0ACFAE36CDAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="600" windowWidth="27870" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ACTIVITY</t>
   </si>
@@ -191,6 +191,10 @@
   </si>
   <si>
     <t>Group Gantt Graph</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graphics Library Learning</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -480,7 +484,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -544,25 +548,16 @@
     <xf numFmtId="1" fontId="12" fillId="6" borderId="0" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1">
@@ -574,16 +569,28 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -608,7 +615,35 @@
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="解释性文本" xfId="12" builtinId="53" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -623,17 +658,319 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="7"/>
+          <color theme="9" tint="0.59996337778862885"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border>
-        <top style="thin">
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
           <color theme="7"/>
-        </top>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
@@ -995,10 +1332,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AA14"/>
+  <dimension ref="B1:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1014,90 +1351,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
       <c r="H1" s="8"/>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="19"/>
       <c r="N1" s="11"/>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="12"/>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
       <c r="Z1" s="18"/>
       <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="2:27" ht="32.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="33"/>
       <c r="N2" s="10"/>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="30"/>
       <c r="S2" s="20">
         <v>12</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
     </row>
     <row r="3" spans="2:27" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="21" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="13"/>
@@ -1113,12 +1450,12 @@
       <c r="AA3" s="15"/>
     </row>
     <row r="4" spans="2:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="16">
         <v>1</v>
       </c>
@@ -1300,7 +1637,7 @@
       <c r="Z7" s="7"/>
       <c r="AA7" s="7"/>
     </row>
-    <row r="8" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:27" ht="51.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1340,34 +1677,34 @@
       <c r="Z8" s="7"/>
       <c r="AA8" s="7"/>
     </row>
-    <row r="9" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:27" ht="51.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G9" s="17">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="35"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
@@ -1380,21 +1717,21 @@
       <c r="Z9" s="7"/>
       <c r="AA9" s="7"/>
     </row>
-    <row r="10" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="51.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
@@ -1422,19 +1759,19 @@
     </row>
     <row r="11" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="6">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E11" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
@@ -1462,22 +1799,22 @@
     </row>
     <row r="12" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
       </c>
       <c r="E12" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F12" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12" s="17">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -1502,22 +1839,22 @@
     </row>
     <row r="13" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D13" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F13" s="6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="17">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -1542,7 +1879,7 @@
     </row>
     <row r="14" spans="2:27" ht="51.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" s="6">
         <v>9</v>
@@ -1551,7 +1888,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" s="6">
         <v>1</v>
@@ -1580,11 +1917,57 @@
       <c r="Z14" s="7"/>
       <c r="AA14" s="7"/>
     </row>
+    <row r="15" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="17">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
   </sheetData>
   <sortState ref="B5:F14">
     <sortCondition ref="C5:C14"/>
   </sortState>
   <mergeCells count="13">
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="T1:Y1"/>
+    <mergeCell ref="T2:X2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="B3:B4"/>
@@ -1592,48 +1975,89 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="T2:X2"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <conditionalFormatting sqref="H5:AA14">
-    <cfRule type="expression" dxfId="9" priority="1">
+  <conditionalFormatting sqref="H10:AA15 H5:AA8">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="31" priority="27">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="30" priority="28">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="29" priority="29">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="28" priority="30">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="27" priority="31">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="25" priority="36">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:AA15">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:AA4">
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:L9 Q9:AA9">
+    <cfRule type="expression" dxfId="23" priority="17">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="18">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="19">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="22">
+      <formula>I$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="23">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="0" priority="8">
-      <formula>H$4=period_selected</formula>
+      <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
@@ -1643,7 +2067,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="H1" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="H2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="N2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="N1" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="N1 M9:P9" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="S1" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
@@ -1654,7 +2078,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="S2 T2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="S2:T2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
